--- a/04반.xlsx
+++ b/04반.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,15 +441,10 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CIP1</t>
+          <t>CIP2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>CIP2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CIP3</t>
         </is>
@@ -458,22 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20422</t>
+          <t>20414</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>활동실1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>자습</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>자습</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CIP3</t>
         </is>
       </c>
     </row>

--- a/04반.xlsx
+++ b/04반.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>활동실1</t>
+          <t>자습실2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/04반.xlsx
+++ b/04반.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>자습실2</t>
+          <t>수행실2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>자습</t>
+          <t>수행실2</t>
         </is>
       </c>
     </row>
